--- a/ExcelFilesDir/ExcelFiles/MerchTest/dhl/1862246_TEMPLATE IN AUDI 2403140446.xlsx
+++ b/ExcelFilesDir/ExcelFiles/MerchTest/dhl/1862246_TEMPLATE IN AUDI 2403140446.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa0auto\Documents\RPA_Audi\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanavia\Desktop\Projects\CursoC#\CursoC\ExcelFilesDir\ExcelFiles\MerchTest\dhl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADD669-7D16-4653-B6A4-7BAFAC792923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3927CD-B6CE-479A-8C01-0D16DF680409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17280" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
   <si>
     <t>MXAUTO_CFDI_REPORT</t>
   </si>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CFDI"/>
@@ -2500,11 +2500,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2572,378 +2572,117 @@
         <v>1862246</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1862246</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="3">
-        <v>52000</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="3">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="3">
-        <v>75012</v>
-      </c>
-      <c r="T8" s="3">
-        <v>44.4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>25172709</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>259.81</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1862246</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="3">
-        <v>52000</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="3">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" s="3">
-        <v>75012</v>
-      </c>
-      <c r="T9" s="3">
-        <v>420</v>
-      </c>
-      <c r="U9" s="3">
-        <v>15</v>
-      </c>
-      <c r="V9" s="3">
-        <v>31181700</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>259.81</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1862246</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="3">
-        <v>52000</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="3">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="3">
-        <v>75012</v>
-      </c>
-      <c r="T10" s="3">
-        <v>128.52000000000001</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1080</v>
-      </c>
-      <c r="V10" s="3">
-        <v>31142901</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>259.81</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1862246</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="3">
         <v>51</v>
       </c>
@@ -2959,9 +2698,6 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M11" s="3" t="s">
         <v>47</v>
       </c>
@@ -2978,10 +2714,10 @@
         <v>75012</v>
       </c>
       <c r="T11" s="3">
-        <v>329.7</v>
+        <v>44.4</v>
       </c>
       <c r="U11" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V11" s="3">
         <v>25172709</v>
@@ -3018,15 +2754,9 @@
       <c r="A12" s="3">
         <v>1862246</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="3">
         <v>51</v>
       </c>
@@ -3042,9 +2772,6 @@
       <c r="K12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>47</v>
       </c>
@@ -3061,10 +2788,10 @@
         <v>75012</v>
       </c>
       <c r="T12" s="3">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="U12" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V12" s="3">
         <v>31181700</v>
@@ -3101,15 +2828,9 @@
       <c r="A13" s="3">
         <v>1862246</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="3">
         <v>51</v>
       </c>
@@ -3125,9 +2846,6 @@
       <c r="K13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M13" s="3" t="s">
         <v>47</v>
       </c>
@@ -3144,16 +2862,16 @@
         <v>75012</v>
       </c>
       <c r="T13" s="3">
-        <v>60</v>
+        <v>128.52000000000001</v>
       </c>
       <c r="U13" s="3">
-        <v>4</v>
+        <v>1080</v>
       </c>
       <c r="V13" s="3">
-        <v>31181700</v>
+        <v>31142901</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>50</v>
@@ -3165,7 +2883,7 @@
         <v>51</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>51</v>
@@ -3184,15 +2902,6 @@
       <c r="A14" s="3">
         <v>1862246</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" s="3">
         <v>51</v>
       </c>
@@ -3208,9 +2917,6 @@
       <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>47</v>
       </c>
@@ -3227,16 +2933,16 @@
         <v>75012</v>
       </c>
       <c r="T14" s="3">
-        <v>248.4</v>
+        <v>329.7</v>
       </c>
       <c r="U14" s="3">
-        <v>2160</v>
+        <v>300</v>
       </c>
       <c r="V14" s="3">
-        <v>31142901</v>
+        <v>25172709</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>50</v>
@@ -3248,7 +2954,7 @@
         <v>51</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>51</v>
@@ -3263,24 +2969,323 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1862246</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="3">
+        <v>75012</v>
+      </c>
+      <c r="T15" s="3">
+        <v>228</v>
+      </c>
+      <c r="U15" s="3">
+        <v>6</v>
+      </c>
+      <c r="V15" s="3">
+        <v>31181700</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>259.81</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1862246</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="3">
+        <v>75012</v>
+      </c>
+      <c r="T16" s="3">
+        <v>60</v>
+      </c>
+      <c r="U16" s="3">
+        <v>4</v>
+      </c>
+      <c r="V16" s="3">
+        <v>31181700</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>259.81</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1862246</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="3">
+        <v>75012</v>
+      </c>
+      <c r="T17" s="3">
+        <v>248.4</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2160</v>
+      </c>
+      <c r="V17" s="3">
+        <v>31142901</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>259.81</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
